--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,12 @@
   </si>
   <si>
     <t>Ephb2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H2">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I2">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J2">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.54901875760126</v>
+        <v>0.017772</v>
       </c>
       <c r="N2">
-        <v>5.54901875760126</v>
+        <v>0.053316</v>
       </c>
       <c r="O2">
-        <v>0.9139636048412911</v>
+        <v>0.002629212535656932</v>
       </c>
       <c r="P2">
-        <v>0.9139636048412911</v>
+        <v>0.002699072137000843</v>
       </c>
       <c r="Q2">
-        <v>5.42343739431581</v>
+        <v>0.003061333632</v>
       </c>
       <c r="R2">
-        <v>5.42343739431581</v>
+        <v>0.027552002688</v>
       </c>
       <c r="S2">
-        <v>0.6061787768330581</v>
+        <v>0.0002650242186482409</v>
       </c>
       <c r="T2">
-        <v>0.6061787768330581</v>
+        <v>0.0003014643409262377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,185 +587,867 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H3">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I3">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J3">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.522359498828154</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N3">
-        <v>0.522359498828154</v>
+        <v>18.522097</v>
       </c>
       <c r="O3">
-        <v>0.08603639515870888</v>
+        <v>0.9133942834993933</v>
       </c>
       <c r="P3">
-        <v>0.08603639515870888</v>
+        <v>0.9376636644070619</v>
       </c>
       <c r="Q3">
-        <v>0.5105378379447618</v>
+        <v>1.063514113610667</v>
       </c>
       <c r="R3">
-        <v>0.5105378379447618</v>
+        <v>9.571627022496001</v>
       </c>
       <c r="S3">
-        <v>0.05706292515825965</v>
+        <v>0.09207000309760538</v>
       </c>
       <c r="T3">
-        <v>0.05706292515825965</v>
+        <v>0.1047293826370479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.496255027007284</v>
+        <v>0.172256</v>
       </c>
       <c r="H4">
-        <v>0.496255027007284</v>
+        <v>0.516768</v>
       </c>
       <c r="I4">
-        <v>0.3367582980086823</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J4">
-        <v>0.3367582980086823</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.54901875760126</v>
+        <v>0.03562666666666667</v>
       </c>
       <c r="N4">
-        <v>5.54901875760126</v>
+        <v>0.10688</v>
       </c>
       <c r="O4">
-        <v>0.9139636048412911</v>
+        <v>0.005270654884293887</v>
       </c>
       <c r="P4">
-        <v>0.9139636048412911</v>
+        <v>0.005410699039737605</v>
       </c>
       <c r="Q4">
-        <v>2.753728453417339</v>
+        <v>0.006136907093333333</v>
       </c>
       <c r="R4">
-        <v>2.753728453417339</v>
+        <v>0.05523216384</v>
       </c>
       <c r="S4">
-        <v>0.307784828008233</v>
+        <v>0.0005312812005612573</v>
       </c>
       <c r="T4">
-        <v>0.307784828008233</v>
+        <v>0.0006043309467738819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.172256</v>
+      </c>
+      <c r="H5">
+        <v>0.516768</v>
+      </c>
+      <c r="I5">
+        <v>0.1007998459820299</v>
+      </c>
+      <c r="J5">
+        <v>0.1116918428350044</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.021442</v>
+      </c>
+      <c r="O5">
+        <v>0.001057385685151848</v>
+      </c>
+      <c r="P5">
+        <v>0.001085480995603047</v>
+      </c>
+      <c r="Q5">
+        <v>0.001231171050666666</v>
+      </c>
+      <c r="R5">
+        <v>0.011080539456</v>
+      </c>
+      <c r="S5">
+        <v>0.0001065843142069094</v>
+      </c>
+      <c r="T5">
+        <v>0.0001212393727612797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.172256</v>
+      </c>
+      <c r="H6">
+        <v>0.516768</v>
+      </c>
+      <c r="I6">
+        <v>0.1007998459820299</v>
+      </c>
+      <c r="J6">
+        <v>0.1116918428350044</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.52486</v>
+      </c>
+      <c r="N6">
+        <v>1.04972</v>
+      </c>
+      <c r="O6">
+        <v>0.07764846339550401</v>
+      </c>
+      <c r="P6">
+        <v>0.05314108342059654</v>
+      </c>
+      <c r="Q6">
+        <v>0.09041028415999999</v>
+      </c>
+      <c r="R6">
+        <v>0.54246170496</v>
+      </c>
+      <c r="S6">
+        <v>0.007826953151008087</v>
+      </c>
+      <c r="T6">
+        <v>0.005935425537495128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.036691</v>
+      </c>
+      <c r="H7">
+        <v>3.110073</v>
+      </c>
+      <c r="I7">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J7">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.017772</v>
+      </c>
+      <c r="N7">
+        <v>0.053316</v>
+      </c>
+      <c r="O7">
+        <v>0.002629212535656932</v>
+      </c>
+      <c r="P7">
+        <v>0.002699072137000843</v>
+      </c>
+      <c r="Q7">
+        <v>0.018424072452</v>
+      </c>
+      <c r="R7">
+        <v>0.165816652068</v>
+      </c>
+      <c r="S7">
+        <v>0.001594999432557725</v>
+      </c>
+      <c r="T7">
+        <v>0.001814307594853951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.036691</v>
+      </c>
+      <c r="H8">
+        <v>3.110073</v>
+      </c>
+      <c r="I8">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J8">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.174032333333334</v>
+      </c>
+      <c r="N8">
+        <v>18.522097</v>
+      </c>
+      <c r="O8">
+        <v>0.9133942834993933</v>
+      </c>
+      <c r="P8">
+        <v>0.9376636644070619</v>
+      </c>
+      <c r="Q8">
+        <v>6.400563753675668</v>
+      </c>
+      <c r="R8">
+        <v>57.605073783081</v>
+      </c>
+      <c r="S8">
+        <v>0.5541063509036528</v>
+      </c>
+      <c r="T8">
+        <v>0.6302944943304374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.036691</v>
+      </c>
+      <c r="H9">
+        <v>3.110073</v>
+      </c>
+      <c r="I9">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J9">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.03562666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.10688</v>
+      </c>
+      <c r="O9">
+        <v>0.005270654884293887</v>
+      </c>
+      <c r="P9">
+        <v>0.005410699039737605</v>
+      </c>
+      <c r="Q9">
+        <v>0.03693384469333334</v>
+      </c>
+      <c r="R9">
+        <v>0.33240460224</v>
+      </c>
+      <c r="S9">
+        <v>0.003197418023703386</v>
+      </c>
+      <c r="T9">
+        <v>0.003637054462787725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.036691</v>
+      </c>
+      <c r="H10">
+        <v>3.110073</v>
+      </c>
+      <c r="I10">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J10">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.021442</v>
+      </c>
+      <c r="O10">
+        <v>0.001057385685151848</v>
+      </c>
+      <c r="P10">
+        <v>0.001085480995603047</v>
+      </c>
+      <c r="Q10">
+        <v>0.007409576140666666</v>
+      </c>
+      <c r="R10">
+        <v>0.06668618526599999</v>
+      </c>
+      <c r="S10">
+        <v>0.0006414580582358533</v>
+      </c>
+      <c r="T10">
+        <v>0.0007296568281352395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.036691</v>
+      </c>
+      <c r="H11">
+        <v>3.110073</v>
+      </c>
+      <c r="I11">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J11">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.52486</v>
+      </c>
+      <c r="N11">
+        <v>1.04972</v>
+      </c>
+      <c r="O11">
+        <v>0.07764846339550401</v>
+      </c>
+      <c r="P11">
+        <v>0.05314108342059654</v>
+      </c>
+      <c r="Q11">
+        <v>0.54411763826</v>
+      </c>
+      <c r="R11">
+        <v>3.26470582956</v>
+      </c>
+      <c r="S11">
+        <v>0.04710507552173351</v>
+      </c>
+      <c r="T11">
+        <v>0.03572126506996193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4999445</v>
+      </c>
+      <c r="H12">
+        <v>0.999889</v>
+      </c>
+      <c r="I12">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J12">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.017772</v>
+      </c>
+      <c r="N12">
+        <v>0.053316</v>
+      </c>
+      <c r="O12">
+        <v>0.002629212535656932</v>
+      </c>
+      <c r="P12">
+        <v>0.002699072137000843</v>
+      </c>
+      <c r="Q12">
+        <v>0.008885013654000001</v>
+      </c>
+      <c r="R12">
+        <v>0.053310081924</v>
+      </c>
+      <c r="S12">
+        <v>0.0007691888844509655</v>
+      </c>
+      <c r="T12">
+        <v>0.0005833002012206539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.496255027007284</v>
-      </c>
-      <c r="H5">
-        <v>0.496255027007284</v>
-      </c>
-      <c r="I5">
-        <v>0.3367582980086823</v>
-      </c>
-      <c r="J5">
-        <v>0.3367582980086823</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.522359498828154</v>
-      </c>
-      <c r="N5">
-        <v>0.522359498828154</v>
-      </c>
-      <c r="O5">
-        <v>0.08603639515870888</v>
-      </c>
-      <c r="P5">
-        <v>0.08603639515870888</v>
-      </c>
-      <c r="Q5">
-        <v>0.2592235271984769</v>
-      </c>
-      <c r="R5">
-        <v>0.2592235271984769</v>
-      </c>
-      <c r="S5">
-        <v>0.02897347000044924</v>
-      </c>
-      <c r="T5">
-        <v>0.02897347000044924</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4999445</v>
+      </c>
+      <c r="H13">
+        <v>0.999889</v>
+      </c>
+      <c r="I13">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J13">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.174032333333334</v>
+      </c>
+      <c r="N13">
+        <v>18.522097</v>
+      </c>
+      <c r="O13">
+        <v>0.9133942834993933</v>
+      </c>
+      <c r="P13">
+        <v>0.9376636644070619</v>
+      </c>
+      <c r="Q13">
+        <v>3.086673507872167</v>
+      </c>
+      <c r="R13">
+        <v>18.520041047233</v>
+      </c>
+      <c r="S13">
+        <v>0.2672179294981352</v>
+      </c>
+      <c r="T13">
+        <v>0.2026397874395767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4999445</v>
+      </c>
+      <c r="H14">
+        <v>0.999889</v>
+      </c>
+      <c r="I14">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J14">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03562666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.10688</v>
+      </c>
+      <c r="O14">
+        <v>0.005270654884293887</v>
+      </c>
+      <c r="P14">
+        <v>0.005410699039737605</v>
+      </c>
+      <c r="Q14">
+        <v>0.01781135605333333</v>
+      </c>
+      <c r="R14">
+        <v>0.10686813632</v>
+      </c>
+      <c r="S14">
+        <v>0.001541955660029244</v>
+      </c>
+      <c r="T14">
+        <v>0.001169313630175998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4999445</v>
+      </c>
+      <c r="H15">
+        <v>0.999889</v>
+      </c>
+      <c r="I15">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J15">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.021442</v>
+      </c>
+      <c r="O15">
+        <v>0.001057385685151848</v>
+      </c>
+      <c r="P15">
+        <v>0.001085480995603047</v>
+      </c>
+      <c r="Q15">
+        <v>0.003573269989666666</v>
+      </c>
+      <c r="R15">
+        <v>0.021439619938</v>
+      </c>
+      <c r="S15">
+        <v>0.0003093433127090855</v>
+      </c>
+      <c r="T15">
+        <v>0.0002345847947065283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4999445</v>
+      </c>
+      <c r="H16">
+        <v>0.999889</v>
+      </c>
+      <c r="I16">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J16">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.52486</v>
+      </c>
+      <c r="N16">
+        <v>1.04972</v>
+      </c>
+      <c r="O16">
+        <v>0.07764846339550401</v>
+      </c>
+      <c r="P16">
+        <v>0.05314108342059654</v>
+      </c>
+      <c r="Q16">
+        <v>0.26240087027</v>
+      </c>
+      <c r="R16">
+        <v>1.04960348108</v>
+      </c>
+      <c r="S16">
+        <v>0.02271643472276242</v>
+      </c>
+      <c r="T16">
+        <v>0.01148439281313949</v>
       </c>
     </row>
   </sheetData>
